--- a/Sample/Documentation/画面要件_プラットフォーム管理システム.xlsx
+++ b/Sample/Documentation/画面要件_プラットフォーム管理システム.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devellop\BackBaseProxy\Sample\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462A4E4B-0430-46FC-A286-83CE483BD4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFB8BFB-BECF-4A16-994C-5E2CE3DB9E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="315" windowWidth="23805" windowHeight="14985" xr2:uid="{2CD32F37-53AA-4690-A943-D989E1EF4641}"/>
+    <workbookView xWindow="1470" yWindow="120" windowWidth="19350" windowHeight="15390" xr2:uid="{2CD32F37-53AA-4690-A943-D989E1EF4641}"/>
   </bookViews>
   <sheets>
     <sheet name="画面一覧" sheetId="1" r:id="rId1"/>
@@ -1176,7 +1176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1197,12 +1197,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13418,8 +13412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D184E9B-DB31-41D7-B29D-3C409E60BDA4}">
   <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:F31"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13722,16 +13716,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E18" s="1"/>
@@ -13743,13 +13737,13 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="1"/>
@@ -13761,10 +13755,10 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -13779,10 +13773,10 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -13794,16 +13788,16 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E22" s="1"/>
@@ -13812,16 +13806,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E23" s="1"/>
@@ -13830,13 +13824,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -13848,13 +13842,13 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A25" s="7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -13866,13 +13860,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A26" s="7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -13884,13 +13878,13 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A27" s="7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -13902,13 +13896,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A28" s="7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -13920,16 +13914,16 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A29" s="7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E29" s="1"/>
@@ -13938,16 +13932,16 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A30" s="7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E30" s="1"/>
@@ -13956,16 +13950,16 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A31" s="7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E31" s="1"/>

--- a/Sample/Documentation/画面要件_プラットフォーム管理システム.xlsx
+++ b/Sample/Documentation/画面要件_プラットフォーム管理システム.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devellop\BackBaseProxy\Sample\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFB8BFB-BECF-4A16-994C-5E2CE3DB9E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F4A3D2-2E0B-409D-AFCB-A0E72AC418EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="120" windowWidth="19350" windowHeight="15390" xr2:uid="{2CD32F37-53AA-4690-A943-D989E1EF4641}"/>
+    <workbookView xWindow="1470" yWindow="120" windowWidth="19350" windowHeight="15390" activeTab="2" xr2:uid="{2CD32F37-53AA-4690-A943-D989E1EF4641}"/>
   </bookViews>
   <sheets>
     <sheet name="画面一覧" sheetId="1" r:id="rId1"/>
@@ -13412,8 +13412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D184E9B-DB31-41D7-B29D-3C409E60BDA4}">
   <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14056,8 +14056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CE4F75-CAF0-422F-93E3-06D707F74138}">
   <dimension ref="C34:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14097,8 +14097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19553A1-37D6-4311-A48C-B055788C6CE3}">
   <dimension ref="C10:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
